--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H2">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>0.6054123895789363</v>
+        <v>0.06423343042999999</v>
       </c>
       <c r="R2">
-        <v>0.6054123895789363</v>
+        <v>0.5781008738699999</v>
       </c>
       <c r="S2">
-        <v>0.3881795575926033</v>
+        <v>0.02561409903567678</v>
       </c>
       <c r="T2">
-        <v>0.3881795575926033</v>
+        <v>0.02561409903567678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H3">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>0.4811944542124096</v>
+        <v>0.03976710495333333</v>
       </c>
       <c r="R3">
-        <v>0.4811944542124096</v>
+        <v>0.35790394458</v>
       </c>
       <c r="S3">
-        <v>0.3085332470352969</v>
+        <v>0.01585776375040215</v>
       </c>
       <c r="T3">
-        <v>0.3085332470352969</v>
+        <v>0.01585776375040216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H4">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>0.2199854675923645</v>
+        <v>0.001287075363888889</v>
       </c>
       <c r="R4">
-        <v>0.2199854675923645</v>
+        <v>0.011583678275</v>
       </c>
       <c r="S4">
-        <v>0.1410507332798348</v>
+        <v>0.0005132417125527283</v>
       </c>
       <c r="T4">
-        <v>0.1410507332798348</v>
+        <v>0.0005132417125527283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09070646329332439</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H5">
-        <v>0.09070646329332439</v>
+        <v>0.110695</v>
       </c>
       <c r="I5">
-        <v>0.1622364620922648</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J5">
-        <v>0.1622364620922648</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>0.1172406768112744</v>
+        <v>0.02677453761666667</v>
       </c>
       <c r="R5">
-        <v>0.1172406768112744</v>
+        <v>0.24097083855</v>
       </c>
       <c r="S5">
-        <v>0.0751726176071658</v>
+        <v>0.01067677148109235</v>
       </c>
       <c r="T5">
-        <v>0.0751726176071658</v>
+        <v>0.01067677148109235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>0.09318534681612917</v>
+        <v>0.833539809766</v>
       </c>
       <c r="R6">
-        <v>0.09318534681612917</v>
+        <v>7.501858287894</v>
       </c>
       <c r="S6">
-        <v>0.05974877178571843</v>
+        <v>0.3323872179112808</v>
       </c>
       <c r="T6">
-        <v>0.05974877178571843</v>
+        <v>0.3323872179112808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>0.04260111876321404</v>
+        <v>0.5160469381106666</v>
       </c>
       <c r="R7">
-        <v>0.04260111876321404</v>
+        <v>4.644422442995999</v>
       </c>
       <c r="S7">
-        <v>0.0273150726993806</v>
+        <v>0.2057819003490576</v>
       </c>
       <c r="T7">
-        <v>0.0273150726993806</v>
+        <v>0.2057819003490576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4788196666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.436459</v>
+      </c>
+      <c r="I8">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="J8">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.104645</v>
+      </c>
+      <c r="O8">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P8">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q8">
+        <v>0.01670202800611111</v>
+      </c>
+      <c r="R8">
+        <v>0.150318252055</v>
+      </c>
+      <c r="S8">
+        <v>0.006660198538071093</v>
+      </c>
+      <c r="T8">
+        <v>0.006660198538071093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4788196666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.436459</v>
+      </c>
+      <c r="I9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="J9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N9">
+        <v>2.17689</v>
+      </c>
+      <c r="O9">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P9">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q9">
+        <v>0.3474459147233334</v>
+      </c>
+      <c r="R9">
+        <v>3.12701323251</v>
+      </c>
+      <c r="S9">
+        <v>0.1385495684986534</v>
+      </c>
+      <c r="T9">
+        <v>0.1385495684986534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.124168</v>
+      </c>
+      <c r="I10">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J10">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.740822</v>
+      </c>
+      <c r="N10">
+        <v>5.222466</v>
+      </c>
+      <c r="O10">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P10">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q10">
+        <v>0.072051462032</v>
+      </c>
+      <c r="R10">
+        <v>0.6484631582879999</v>
+      </c>
+      <c r="S10">
+        <v>0.02873166311994141</v>
+      </c>
+      <c r="T10">
+        <v>0.02873166311994142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.124168</v>
+      </c>
+      <c r="I11">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J11">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.077748</v>
+      </c>
+      <c r="N11">
+        <v>3.233244</v>
+      </c>
+      <c r="O11">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P11">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q11">
+        <v>0.04460727122133333</v>
+      </c>
+      <c r="R11">
+        <v>0.401465440992</v>
+      </c>
+      <c r="S11">
+        <v>0.01778785680798532</v>
+      </c>
+      <c r="T11">
+        <v>0.01778785680798532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.124168</v>
+      </c>
+      <c r="I12">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J12">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.104645</v>
+      </c>
+      <c r="O12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q12">
+        <v>0.001443728928888889</v>
+      </c>
+      <c r="R12">
+        <v>0.01299356036</v>
+      </c>
+      <c r="S12">
+        <v>0.000575709805901325</v>
+      </c>
+      <c r="T12">
+        <v>0.0005757098059013252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.124168</v>
+      </c>
+      <c r="I13">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J13">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.17689</v>
+      </c>
+      <c r="O13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q13">
+        <v>0.03003334194666667</v>
+      </c>
+      <c r="R13">
+        <v>0.27030007752</v>
+      </c>
+      <c r="S13">
+        <v>0.01197627138772551</v>
+      </c>
+      <c r="T13">
+        <v>0.01197627138772551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.430673</v>
+      </c>
+      <c r="I14">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J14">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>0.249908344402</v>
+      </c>
+      <c r="R14">
+        <v>2.249175099618</v>
+      </c>
+      <c r="S14">
+        <v>0.09965491552456775</v>
+      </c>
+      <c r="T14">
+        <v>0.09965491552456776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.430673</v>
+      </c>
+      <c r="I15">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J15">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>0.1547189881346667</v>
+      </c>
+      <c r="R15">
+        <v>1.392470893212</v>
+      </c>
+      <c r="S15">
+        <v>0.06169665014388136</v>
+      </c>
+      <c r="T15">
+        <v>0.06169665014388138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.430673</v>
+      </c>
+      <c r="I16">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J16">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>0.005007530676111111</v>
+      </c>
+      <c r="R16">
+        <v>0.045067776085</v>
+      </c>
+      <c r="S16">
+        <v>0.001996832269481198</v>
+      </c>
+      <c r="T16">
+        <v>0.001996832269481198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.430673</v>
+      </c>
+      <c r="I17">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J17">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>0.1041697496633334</v>
+      </c>
+      <c r="R17">
+        <v>0.9375277469700002</v>
+      </c>
+      <c r="S17">
+        <v>0.04153933966372903</v>
+      </c>
+      <c r="T17">
+        <v>0.04153933966372904</v>
       </c>
     </row>
   </sheetData>
